--- a/Document/8.1.ProjectTestCaseSprint2.xlsx
+++ b/Document/8.1.ProjectTestCaseSprint2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -2076,6 +2076,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,18 +2097,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,18 +2118,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2143,30 +2167,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -2865,31 +2865,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" customHeight="1">
       <c r="A3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="48" t="s">
@@ -3042,7 +3042,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="105"/>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="127" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3051,14 +3051,14 @@
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
       <c r="D17" s="105"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="126"/>
       <c r="B18" s="126"/>
       <c r="C18" s="126"/>
       <c r="D18" s="105"/>
-      <c r="E18" s="125"/>
+      <c r="E18" s="129"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="126">
@@ -3071,7 +3071,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="105"/>
-      <c r="E19" s="123" t="s">
+      <c r="E19" s="127" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3080,14 +3080,14 @@
       <c r="B20" s="126"/>
       <c r="C20" s="126"/>
       <c r="D20" s="105"/>
-      <c r="E20" s="124"/>
+      <c r="E20" s="128"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="126"/>
       <c r="B21" s="126"/>
       <c r="C21" s="126"/>
       <c r="D21" s="105"/>
-      <c r="E21" s="125"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="49">
@@ -3112,6 +3112,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C10:C12"/>
@@ -3125,12 +3131,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -3157,24 +3157,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="24.6">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="13.2">
       <c r="A2" s="2"/>
@@ -3198,22 +3198,22 @@
       <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="153"/>
+      <c r="C3" s="146"/>
       <c r="D3" s="52"/>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="146" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
       <c r="N3" s="53"/>
@@ -3222,20 +3222,20 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A4" s="51"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="149" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="144"/>
       <c r="L4" s="54"/>
       <c r="M4" s="53"/>
       <c r="N4" s="53"/>
@@ -3244,20 +3244,20 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A5" s="51"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="54"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="143">
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="151">
         <v>44114</v>
       </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
       <c r="L5" s="54"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
@@ -3268,18 +3268,18 @@
       <c r="A6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
       <c r="L6" s="56"/>
       <c r="M6" s="57"/>
       <c r="N6" s="57"/>
@@ -3289,52 +3289,52 @@
     <row r="7" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142" t="s">
+      <c r="D7" s="150"/>
+      <c r="E7" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142" t="s">
+      <c r="F7" s="150"/>
+      <c r="G7" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142" t="s">
+      <c r="J7" s="150"/>
+      <c r="K7" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="137" t="s">
+      <c r="L7" s="150"/>
+      <c r="M7" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138" t="s">
+      <c r="N7" s="147"/>
+      <c r="O7" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="138"/>
+      <c r="P7" s="148"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A8" s="60"/>
       <c r="B8" s="61"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -4055,13 +4055,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -4073,6 +4066,13 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -4083,8 +4083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -5606,7 +5606,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="M14" s="95"/>
     </row>
-    <row r="15" spans="1:13" s="85" customFormat="1" ht="67.2">
+    <row r="15" spans="1:13" s="85" customFormat="1" ht="50.4">
       <c r="A15" s="94" t="s">
         <v>194</v>
       </c>
@@ -6531,13 +6531,6 @@
     <row r="38" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -6546,6 +6539,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31">
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="46" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F31"/>
+    <sheetView topLeftCell="A19" zoomScale="46" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -7489,13 +7489,6 @@
     <row r="38" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -7504,6 +7497,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31">
@@ -7521,8 +7521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="57" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A20" zoomScale="57" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -8447,13 +8447,6 @@
     <row r="38" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -8462,6 +8455,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31">
